--- a/初赛/train-2-server.xlsx
+++ b/初赛/train-2-server.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8302266-3765-4EF5-B2CC-60D440351E16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC626D74-4C84-43B7-9FD6-77DBB0C4E765}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>服务器型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,10 +340,6 @@
   </si>
   <si>
     <t>hostZS43C</t>
-  </si>
-  <si>
-    <t>性价比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -668,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,7 +675,7 @@
     <col min="1" max="1" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -695,11 +691,8 @@
       <c r="E1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -715,12 +708,8 @@
       <c r="E2">
         <v>141</v>
       </c>
-      <c r="F2">
-        <f>(D2+E2*365)/(B2+C2/8)</f>
-        <v>478.50154798761611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -736,12 +725,8 @@
       <c r="E3">
         <v>111</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">(D3+E3*365)/(B3+C3/8)</f>
-        <v>419.87310344827586</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -757,12 +742,8 @@
       <c r="E4">
         <v>122</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>353.14589989350372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -778,12 +759,8 @@
       <c r="E5">
         <v>70</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>319.247947454844</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -799,12 +776,8 @@
       <c r="E6">
         <v>134</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>341.33647502356268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -820,12 +793,8 @@
       <c r="E7">
         <v>244</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>415.7588253670728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -841,12 +810,8 @@
       <c r="E8">
         <v>132</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>344.48341232227489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -862,12 +827,8 @@
       <c r="E9">
         <v>106</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>644.0622222222222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -883,12 +844,8 @@
       <c r="E10">
         <v>138</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>347.97605893186005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -904,12 +861,8 @@
       <c r="E11">
         <v>122</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>301.36624775583482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -925,12 +878,8 @@
       <c r="E12">
         <v>56</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>322.68631578947367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -946,12 +895,8 @@
       <c r="E13">
         <v>236</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>422.15992102665348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -967,12 +912,8 @@
       <c r="E14">
         <v>62</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>417.94795539033458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -988,12 +929,8 @@
       <c r="E15">
         <v>105</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>363.53836234687299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1009,12 +946,8 @@
       <c r="E16">
         <v>112</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>527.3943541488452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1030,12 +963,8 @@
       <c r="E17">
         <v>119</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>437.49157113958194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1051,12 +980,8 @@
       <c r="E18">
         <v>232</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>411.75032509752924</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1072,12 +997,8 @@
       <c r="E19">
         <v>97</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>429.31386861313871</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1093,12 +1014,8 @@
       <c r="E20">
         <v>79</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>591.44275862068969</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1114,12 +1031,8 @@
       <c r="E21">
         <v>181</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>334.62872628726285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1135,12 +1048,8 @@
       <c r="E22">
         <v>205</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>335.12690355329948</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1156,12 +1065,8 @@
       <c r="E23">
         <v>178</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>310.24561403508773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1177,12 +1082,8 @@
       <c r="E24">
         <v>102</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>305.35019241341394</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1198,12 +1099,8 @@
       <c r="E25">
         <v>148</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>576.7329545454545</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1219,12 +1116,8 @@
       <c r="E26">
         <v>176</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>380.99127676447262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1240,12 +1133,8 @@
       <c r="E27">
         <v>200</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>456.10385259631488</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1261,12 +1150,8 @@
       <c r="E28">
         <v>249</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>325.54602409638557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1282,12 +1167,8 @@
       <c r="E29">
         <v>132</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>299.71236333052985</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1303,12 +1184,8 @@
       <c r="E30">
         <v>239</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>375.70523891767414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1324,12 +1201,8 @@
       <c r="E31">
         <v>98</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>335.48338557993731</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1345,12 +1218,8 @@
       <c r="E32">
         <v>289</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>356.96761041902607</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1366,12 +1235,8 @@
       <c r="E33">
         <v>149</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>299.7823529411765</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1387,12 +1252,8 @@
       <c r="E34">
         <v>123</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>484.5644699140401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1408,12 +1269,8 @@
       <c r="E35">
         <v>150</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>360.85840707964604</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1429,12 +1286,8 @@
       <c r="E36">
         <v>61</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>310.42003853564546</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1450,12 +1303,8 @@
       <c r="E37">
         <v>179</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>301.68686557982159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1471,12 +1320,8 @@
       <c r="E38">
         <v>61</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>411.78920953575908</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1492,12 +1337,8 @@
       <c r="E39">
         <v>140</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>492.02034329307054</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1513,12 +1354,8 @@
       <c r="E40">
         <v>115</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>319.55104113763332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1534,12 +1371,8 @@
       <c r="E41">
         <v>43</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>378.51876019575855</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1555,12 +1388,8 @@
       <c r="E42">
         <v>106</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>640.12240437158471</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1576,12 +1405,8 @@
       <c r="E43">
         <v>82</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>311.9214035087719</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1597,12 +1422,8 @@
       <c r="E44">
         <v>117</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>379.06272189349113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1618,12 +1439,8 @@
       <c r="E45">
         <v>121</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>335.37948458817584</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1639,12 +1456,8 @@
       <c r="E46">
         <v>184</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>311.94930448222567</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1660,12 +1473,8 @@
       <c r="E47">
         <v>63</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>484.61494252873564</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1681,12 +1490,8 @@
       <c r="E48">
         <v>207</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>445.98332671695118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1702,12 +1507,8 @@
       <c r="E49">
         <v>102</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>667.9099526066351</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1723,12 +1524,8 @@
       <c r="E50">
         <v>65</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>505.14689265536725</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1744,12 +1541,8 @@
       <c r="E51">
         <v>162</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>437.54838709677421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1765,12 +1558,8 @@
       <c r="E52">
         <v>125</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>338.30983118172793</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1786,12 +1575,8 @@
       <c r="E53">
         <v>96</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>393.89789789789791</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1807,12 +1592,8 @@
       <c r="E54">
         <v>237</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>350.09719222462201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1828,12 +1609,8 @@
       <c r="E55">
         <v>41</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>345.64596273291926</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1849,12 +1626,8 @@
       <c r="E56">
         <v>49</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>375.76170212765959</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1870,12 +1643,8 @@
       <c r="E57">
         <v>122</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>657.73134328358208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1891,12 +1660,8 @@
       <c r="E58">
         <v>62</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>474.20903954802259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1912,12 +1677,8 @@
       <c r="E59">
         <v>96</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>349.9800399201597</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1933,12 +1694,8 @@
       <c r="E60">
         <v>149</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>433.8716577540107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1954,12 +1711,8 @@
       <c r="E61">
         <v>89</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>401.43481781376516</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1975,12 +1728,8 @@
       <c r="E62">
         <v>143</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>454.88149445417395</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1996,12 +1745,8 @@
       <c r="E63">
         <v>121</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>653.29803921568623</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2017,12 +1762,8 @@
       <c r="E64">
         <v>116</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>333.09340369393141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2038,12 +1779,8 @@
       <c r="E65">
         <v>72</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>303.25811437403399</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2059,12 +1796,8 @@
       <c r="E66">
         <v>43</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>330.34244604316547</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2080,12 +1813,8 @@
       <c r="E67">
         <v>228</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F101" si="1">(D67+E67*365)/(B67+C67/8)</f>
-        <v>318.10972186782345</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2101,12 +1830,8 @@
       <c r="E68">
         <v>225</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="1"/>
-        <v>308.82087305569496</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2122,12 +1847,8 @@
       <c r="E69">
         <v>149</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="1"/>
-        <v>337.32056619483762</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2143,12 +1864,8 @@
       <c r="E70">
         <v>60</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="1"/>
-        <v>482.74084919472915</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2164,12 +1881,8 @@
       <c r="E71">
         <v>57</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="1"/>
-        <v>413.6308100929615</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2185,12 +1898,8 @@
       <c r="E72">
         <v>104</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="1"/>
-        <v>311.78012215435871</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2206,12 +1915,8 @@
       <c r="E73">
         <v>107</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="1"/>
-        <v>298.16700610997964</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2227,12 +1932,8 @@
       <c r="E74">
         <v>120</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="1"/>
-        <v>614.52591894439206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2248,12 +1949,8 @@
       <c r="E75">
         <v>190</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="1"/>
-        <v>392.42916509255764</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2269,12 +1966,8 @@
       <c r="E76">
         <v>134</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="1"/>
-        <v>374.90260071392146</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2290,12 +1983,8 @@
       <c r="E77">
         <v>280</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="1"/>
-        <v>366.5109138882226</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2311,12 +2000,8 @@
       <c r="E78">
         <v>152</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="1"/>
-        <v>549.8781456953642</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2332,12 +2017,8 @@
       <c r="E79">
         <v>246</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="1"/>
-        <v>345.3573264781491</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2353,12 +2034,8 @@
       <c r="E80">
         <v>144</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>595.69840060929175</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2374,12 +2051,8 @@
       <c r="E81">
         <v>251</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>383.96527583309995</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -2395,12 +2068,8 @@
       <c r="E82">
         <v>126</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="1"/>
-        <v>373.455938697318</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -2416,12 +2085,8 @@
       <c r="E83">
         <v>208</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="1"/>
-        <v>309.3162765378334</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -2437,12 +2102,8 @@
       <c r="E84">
         <v>133</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="1"/>
-        <v>364.84884884884883</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -2458,12 +2119,8 @@
       <c r="E85">
         <v>108</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="1"/>
-        <v>666.48878923766813</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -2479,12 +2136,8 @@
       <c r="E86">
         <v>303</v>
       </c>
-      <c r="F86">
-        <f t="shared" si="1"/>
-        <v>384.043458159963</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -2500,12 +2153,8 @@
       <c r="E87">
         <v>90</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="1"/>
-        <v>522.08565310492509</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -2521,12 +2170,8 @@
       <c r="E88">
         <v>265</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="1"/>
-        <v>403.64804469273741</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2542,12 +2187,8 @@
       <c r="E89">
         <v>138</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="1"/>
-        <v>425.76008968609864</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -2563,12 +2204,8 @@
       <c r="E90">
         <v>121</v>
       </c>
-      <c r="F90">
-        <f t="shared" si="1"/>
-        <v>680.66666666666663</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -2584,12 +2221,8 @@
       <c r="E91">
         <v>96</v>
       </c>
-      <c r="F91">
-        <f t="shared" si="1"/>
-        <v>378.62673484295107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -2605,12 +2238,8 @@
       <c r="E92">
         <v>68</v>
       </c>
-      <c r="F92">
-        <f t="shared" si="1"/>
-        <v>379.25458248472506</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2626,12 +2255,8 @@
       <c r="E93">
         <v>52</v>
       </c>
-      <c r="F93">
-        <f t="shared" si="1"/>
-        <v>400.46731571627259</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -2647,12 +2272,8 @@
       <c r="E94">
         <v>110</v>
       </c>
-      <c r="F94">
-        <f t="shared" si="1"/>
-        <v>306.20433436532505</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -2668,12 +2289,8 @@
       <c r="E95">
         <v>119</v>
       </c>
-      <c r="F95">
-        <f t="shared" si="1"/>
-        <v>655.355623100304</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -2689,12 +2306,8 @@
       <c r="E96">
         <v>262</v>
       </c>
-      <c r="F96">
-        <f t="shared" si="1"/>
-        <v>386.35008103727716</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -2710,12 +2323,8 @@
       <c r="E97">
         <v>160</v>
       </c>
-      <c r="F97">
-        <f t="shared" si="1"/>
-        <v>367.42114093959731</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -2731,12 +2340,8 @@
       <c r="E98">
         <v>102</v>
       </c>
-      <c r="F98">
-        <f t="shared" si="1"/>
-        <v>303.06151333696243</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -2752,12 +2357,8 @@
       <c r="E99">
         <v>52</v>
       </c>
-      <c r="F99">
-        <f t="shared" si="1"/>
-        <v>440.39937597503899</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -2773,12 +2374,8 @@
       <c r="E100">
         <v>235</v>
       </c>
-      <c r="F100">
-        <f t="shared" si="1"/>
-        <v>345.91801510248115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -2793,10 +2390,6 @@
       </c>
       <c r="E101">
         <v>212</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="1"/>
-        <v>307.75651249335459</v>
       </c>
     </row>
   </sheetData>
